--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
@@ -8,7 +8,6 @@
     <sheet state="visible" name="HH Sprint 2" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="HH Sprint 3" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="HH Sprint 4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Total HH" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>Desarrollo ágil: Sprint Plannig - Proyecto Biblioteca El pimiento</t>
   </si>
@@ -138,49 +137,40 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Crear autor</t>
+    <t>Crud funciones secundarias</t>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Pagina principal administradores</t>
+  </si>
+  <si>
+    <t>Seguridad pagina</t>
+  </si>
+  <si>
+    <t>Pagina principal usuarios</t>
+  </si>
+  <si>
+    <t>Pagina informativa</t>
+  </si>
+  <si>
+    <t>Poblado de base de datos</t>
+  </si>
+  <si>
+    <t>Estadisticas prestamos</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>adaptabilidad a celulares</t>
   </si>
   <si>
     <t>No empezado</t>
   </si>
   <si>
-    <t>Crear categoria</t>
-  </si>
-  <si>
-    <t>Crear genero</t>
-  </si>
-  <si>
-    <t>Crear editorial</t>
-  </si>
-  <si>
-    <t>Crear repisas</t>
-  </si>
-  <si>
-    <t>Filtro categorias</t>
-  </si>
-  <si>
-    <t>Filtro generos</t>
-  </si>
-  <si>
-    <t>Ver el horario de atención</t>
-  </si>
-  <si>
-    <t>Consultar la misión y visión de la biblioteca</t>
-  </si>
-  <si>
-    <t>Consultar la ubicación de la biblioteca</t>
-  </si>
-  <si>
-    <t>adaptabilidad a celulares</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>Marcha blanca</t>
-  </si>
-  <si>
-    <t>Sin asignar</t>
   </si>
   <si>
     <t>Pruebas de preproducción</t>
@@ -470,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -566,9 +556,6 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -812,11 +799,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2119774007"/>
-        <c:axId val="1168089451"/>
+        <c:axId val="1615589012"/>
+        <c:axId val="867146787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119774007"/>
+        <c:axId val="1615589012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,10 +855,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168089451"/>
+        <c:crossAx val="867146787"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1168089451"/>
+        <c:axId val="867146787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +933,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119774007"/>
+        <c:crossAx val="1615589012"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1047,12 +1034,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$12:$C$27</c:f>
+              <c:f>'Sprint Plannig'!$C$12:$C$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$D$12:$D$27</c:f>
+              <c:f>'Sprint Plannig'!$D$12:$D$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1103,12 +1090,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$12:$C$27</c:f>
+              <c:f>'Sprint Plannig'!$C$12:$C$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$12:$G$27</c:f>
+              <c:f>'Sprint Plannig'!$G$12:$G$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1123,21 +1110,21 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$12:$C$27</c:f>
+              <c:f>'Sprint Plannig'!$C$12:$C$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$H$12:$H$27</c:f>
+              <c:f>'Sprint Plannig'!$H$12:$H$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1818527385"/>
-        <c:axId val="989658468"/>
+        <c:axId val="1878405385"/>
+        <c:axId val="1165184134"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1818527385"/>
+        <c:axId val="1878405385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,10 +1176,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989658468"/>
+        <c:crossAx val="1165184134"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989658468"/>
+        <c:axId val="1165184134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1818527385"/>
+        <c:crossAx val="1878405385"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1344,6 +1331,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:dPt>
+            <c:idx val="8"/>
+          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -1368,12 +1358,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
+              <c:f>'Sprint Plannig'!$C$30:$C$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$D$30:$D$41</c:f>
+              <c:f>'Sprint Plannig'!$G$30:$G$38</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1418,36 +1408,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
+              <c:f>'Sprint Plannig'!$C$30:$C$38</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$30:$G$41</c:f>
+              <c:f>'Sprint Plannig'!$H$30:$H$38</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint Plannig'!$C$30:$C$41</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint Plannig'!$H$30:$H$41</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="940065747"/>
-        <c:axId val="1540033591"/>
+        <c:axId val="1645091540"/>
+        <c:axId val="1974959301"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="940065747"/>
+        <c:axId val="1645091540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,10 +1474,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540033591"/>
+        <c:crossAx val="1974959301"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540033591"/>
+        <c:axId val="1974959301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="940065747"/>
+        <c:crossAx val="1645091540"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1678,12 +1653,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
+              <c:f>'Sprint Plannig'!$C$39:$C$43</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$D$42:$D$45</c:f>
+              <c:f>'Sprint Plannig'!$D$39:$D$43</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1728,12 +1703,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
+              <c:f>'Sprint Plannig'!$C$39:$C$43</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$G$42:$G$45</c:f>
+              <c:f>'Sprint Plannig'!$G$39:$G$43</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1743,21 +1718,21 @@
           <c:order val="2"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Plannig'!$C$42:$C$45</c:f>
+              <c:f>'Sprint Plannig'!$C$39:$C$43</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Plannig'!$H$42:$H$45</c:f>
+              <c:f>'Sprint Plannig'!$H$39:$H$43</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1942957594"/>
-        <c:axId val="421191584"/>
+        <c:axId val="1121083009"/>
+        <c:axId val="48973305"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1942957594"/>
+        <c:axId val="1121083009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,10 +1784,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421191584"/>
+        <c:crossAx val="48973305"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421191584"/>
+        <c:axId val="48973305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1862,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1942957594"/>
+        <c:crossAx val="1121083009"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1899,269 +1874,6 @@
         <a:p>
           <a:pPr lvl="0">
             <a:defRPr b="0" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" sz="2400">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="2400">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Total HH</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint Plannig'!$B$46:$F$46</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FB9304"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr sz="1800">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFFFF"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint Plannig'!$G$4:$H$4</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint Plannig'!$G$46:$H$46</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="259221603"/>
-        <c:axId val="1496638210"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="259221603"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="2000">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496638210"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1496638210"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Horas Totales</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259221603"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
@@ -2204,15 +1916,6 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2325,33 +2028,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:I46" displayName="Sprint_Planning" name="Sprint_Planning" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:I44" displayName="Sprint_Planning" name="Sprint_Planning" id="1">
   <tableColumns count="8">
     <tableColumn name="Sprint" id="1"/>
     <tableColumn name="Nombre de Tarea" id="2"/>
@@ -2774,7 +2452,7 @@
         <v>4.0</v>
       </c>
       <c r="H12" s="18">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>12</v>
@@ -2990,7 +2668,7 @@
         <v>8.0</v>
       </c>
       <c r="H21" s="24">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>22</v>
@@ -3038,7 +2716,7 @@
         <v>8.0</v>
       </c>
       <c r="H23" s="24">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>24</v>
@@ -3062,7 +2740,7 @@
         <v>5.0</v>
       </c>
       <c r="H24" s="18">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>15</v>
@@ -3086,7 +2764,7 @@
         <v>5.0</v>
       </c>
       <c r="H25" s="24">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>15</v>
@@ -3110,7 +2788,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" s="18">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>15</v>
@@ -3134,7 +2812,7 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>22</v>
@@ -3182,7 +2860,7 @@
         <v>8.0</v>
       </c>
       <c r="H29" s="24">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>15</v>
@@ -3206,19 +2884,19 @@
         <v>40</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E31" s="31">
-        <v>45586.0</v>
+        <v>45600.0</v>
       </c>
       <c r="F31" s="31">
-        <v>45587.0</v>
+        <v>45604.0</v>
       </c>
       <c r="G31" s="24">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="H31" s="24">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>24</v>
@@ -3226,23 +2904,23 @@
     </row>
     <row r="32">
       <c r="B32" s="14"/>
-      <c r="C32" s="32" t="s">
-        <v>42</v>
+      <c r="C32" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="33">
-        <v>45586.0</v>
-      </c>
-      <c r="F32" s="33">
-        <v>45587.0</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="32">
+        <v>45600.0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>45603.0</v>
       </c>
       <c r="G32" s="18">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H32" s="18">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>22</v>
@@ -3250,23 +2928,23 @@
     </row>
     <row r="33">
       <c r="B33" s="20"/>
-      <c r="C33" s="30" t="s">
-        <v>43</v>
+      <c r="C33" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E33" s="31">
-        <v>45586.0</v>
+        <v>45600.0</v>
       </c>
       <c r="F33" s="31">
-        <v>45587.0</v>
+        <v>45601.0</v>
       </c>
       <c r="G33" s="24">
         <v>5.0</v>
       </c>
       <c r="H33" s="24">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>15</v>
@@ -3274,47 +2952,47 @@
     </row>
     <row r="34">
       <c r="B34" s="14"/>
-      <c r="C34" s="32" t="s">
-        <v>44</v>
+      <c r="C34" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="33">
-        <v>45588.0</v>
-      </c>
-      <c r="F34" s="33">
-        <v>45589.0</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="32">
+        <v>45602.0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>45610.0</v>
       </c>
       <c r="G34" s="18">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" s="18">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="20"/>
-      <c r="C35" s="30" t="s">
-        <v>45</v>
+      <c r="C35" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E35" s="31">
-        <v>45588.0</v>
+        <v>45604.0</v>
       </c>
       <c r="F35" s="31">
-        <v>45589.0</v>
+        <v>45607.0</v>
       </c>
       <c r="G35" s="24">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" s="24">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>22</v>
@@ -3322,140 +3000,128 @@
     </row>
     <row r="36">
       <c r="B36" s="14"/>
-      <c r="C36" s="30" t="s">
-        <v>46</v>
+      <c r="C36" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="33">
-        <v>45590.0</v>
-      </c>
-      <c r="F36" s="33">
-        <v>45594.0</v>
+        <v>11</v>
+      </c>
+      <c r="E36" s="32">
+        <v>45605.0</v>
+      </c>
+      <c r="F36" s="32">
+        <v>45609.0</v>
       </c>
       <c r="G36" s="18">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H36" s="18">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="20"/>
-      <c r="C37" s="30" t="s">
-        <v>47</v>
+      <c r="C37" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E37" s="31">
-        <v>45590.0</v>
+        <v>45607.0</v>
       </c>
       <c r="F37" s="31">
-        <v>45594.0</v>
+        <v>45613.0</v>
       </c>
       <c r="G37" s="24">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="H37" s="24">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="14"/>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="32">
+        <v>45617.0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>45618.0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="33">
-        <v>45593.0</v>
-      </c>
-      <c r="F38" s="33">
-        <v>45593.0</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="20"/>
-      <c r="C39" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="31">
-        <v>45593.0</v>
-      </c>
-      <c r="F39" s="31">
-        <v>45593.0</v>
-      </c>
-      <c r="G39" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="H39" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40">
       <c r="B40" s="14"/>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="33">
-        <v>45626.0</v>
-      </c>
-      <c r="F40" s="33">
-        <v>45626.0</v>
+      <c r="E40" s="32">
+        <v>45621.0</v>
+      </c>
+      <c r="F40" s="32">
+        <v>45640.0</v>
       </c>
       <c r="G40" s="18">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="H40" s="18">
         <v>0.0</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E41" s="31">
-        <v>45597.0</v>
+        <v>45621.0</v>
       </c>
       <c r="F41" s="31">
-        <v>45619.0</v>
+        <v>45640.0</v>
       </c>
       <c r="G41" s="24">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="H41" s="24">
         <v>0.0</v>
@@ -3465,24 +3131,36 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
+      <c r="D42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="32">
+        <v>45621.0</v>
+      </c>
+      <c r="F42" s="32">
+        <v>45640.0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="20"/>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E43" s="31">
         <v>45621.0</v>
@@ -3497,81 +3175,33 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="33">
-        <v>45621.0</v>
-      </c>
-      <c r="F44" s="33">
-        <v>45640.0</v>
-      </c>
-      <c r="G44" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="31">
-        <v>45621.0</v>
-      </c>
-      <c r="F45" s="31">
-        <v>45640.0</v>
-      </c>
-      <c r="G45" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="H45" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="39">
-        <f t="shared" ref="G46:H46" si="1">SUM(G5:G45)</f>
-        <v>210</v>
-      </c>
-      <c r="H46" s="39">
+      <c r="G44" s="38">
+        <f t="shared" ref="G44:H44" si="1">SUM(G5:G43)</f>
+        <v>238</v>
+      </c>
+      <c r="H44" s="38">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="I46" s="40"/>
+        <v>176</v>
+      </c>
+      <c r="I44" s="39"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D46">
+    <dataValidation type="list" allowBlank="1" sqref="D5:D44">
       <formula1>"Terminado,Desarrollo,No empezado,Atrasado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:I46">
+    <dataValidation type="list" allowBlank="1" sqref="I5:I44">
       <formula1>"Scrum master,Scrum team,Sebastian Gonzalez,Sebastian Pardo,Sin asignar"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint Planning  - Proyecto Biblioteca El pimiento.xlsx
@@ -140,19 +140,19 @@
     <t>Crud funciones secundarias</t>
   </si>
   <si>
+    <t>Pagina principal administradores</t>
+  </si>
+  <si>
     <t>Filtro</t>
   </si>
   <si>
-    <t>Pagina principal administradores</t>
-  </si>
-  <si>
     <t>Seguridad pagina</t>
   </si>
   <si>
     <t>Pagina principal usuarios</t>
   </si>
   <si>
-    <t>Pagina informativa</t>
+    <t>Pagina principal informativa</t>
   </si>
   <si>
     <t>Poblado de base de datos</t>
@@ -167,7 +167,7 @@
     <t>adaptabilidad a celulares</t>
   </si>
   <si>
-    <t>No empezado</t>
+    <t>Cancelado</t>
   </si>
   <si>
     <t>Marcha blanca</t>
@@ -799,11 +799,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1615589012"/>
-        <c:axId val="867146787"/>
+        <c:axId val="514574586"/>
+        <c:axId val="414836133"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1615589012"/>
+        <c:axId val="514574586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,10 +855,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867146787"/>
+        <c:crossAx val="414836133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="867146787"/>
+        <c:axId val="414836133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +933,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1615589012"/>
+        <c:crossAx val="514574586"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1120,11 +1120,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1878405385"/>
-        <c:axId val="1165184134"/>
+        <c:axId val="1919263294"/>
+        <c:axId val="452862767"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1878405385"/>
+        <c:axId val="1919263294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,10 +1176,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165184134"/>
+        <c:crossAx val="452862767"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1165184134"/>
+        <c:axId val="452862767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1878405385"/>
+        <c:crossAx val="1919263294"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1418,11 +1418,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1645091540"/>
-        <c:axId val="1974959301"/>
+        <c:axId val="513646899"/>
+        <c:axId val="314753752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1645091540"/>
+        <c:axId val="513646899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,10 +1474,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1974959301"/>
+        <c:crossAx val="314753752"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1974959301"/>
+        <c:axId val="314753752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645091540"/>
+        <c:crossAx val="513646899"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1728,11 +1728,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1121083009"/>
-        <c:axId val="48973305"/>
+        <c:axId val="536236549"/>
+        <c:axId val="2077747975"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1121083009"/>
+        <c:axId val="536236549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,10 +1784,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48973305"/>
+        <c:crossAx val="2077747975"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48973305"/>
+        <c:axId val="2077747975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1862,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1121083009"/>
+        <c:crossAx val="536236549"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2311,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="17">
-        <v>45564.0</v>
+        <v>45551.0</v>
       </c>
       <c r="F6" s="17">
-        <v>45564.0</v>
+        <v>45551.0</v>
       </c>
       <c r="G6" s="18">
         <v>1.0</v>
@@ -2335,10 +2335,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="23">
-        <v>45564.0</v>
+        <v>45552.0</v>
       </c>
       <c r="F7" s="23">
-        <v>45564.0</v>
+        <v>45554.0</v>
       </c>
       <c r="G7" s="24">
         <v>3.0</v>
@@ -2359,10 +2359,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="17">
-        <v>45564.0</v>
+        <v>45555.0</v>
       </c>
       <c r="F8" s="17">
-        <v>45564.0</v>
+        <v>45556.0</v>
       </c>
       <c r="G8" s="18">
         <v>2.0</v>
@@ -2383,10 +2383,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="23">
-        <v>45563.0</v>
+        <v>45558.0</v>
       </c>
       <c r="F9" s="23">
-        <v>45563.0</v>
+        <v>45560.0</v>
       </c>
       <c r="G9" s="24">
         <v>2.0</v>
@@ -2407,10 +2407,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="17">
-        <v>45564.0</v>
+        <v>45561.0</v>
       </c>
       <c r="F10" s="17">
-        <v>45564.0</v>
+        <v>45562.0</v>
       </c>
       <c r="G10" s="18">
         <v>4.0</v>
@@ -2887,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="31">
-        <v>45600.0</v>
+        <v>45593.0</v>
       </c>
       <c r="F31" s="31">
         <v>45604.0</v>
@@ -2904,31 +2904,31 @@
     </row>
     <row r="32">
       <c r="B32" s="14"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="32">
-        <v>45600.0</v>
+        <v>45597.0</v>
       </c>
       <c r="F32" s="32">
-        <v>45603.0</v>
+        <v>45601.0</v>
       </c>
       <c r="G32" s="18">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="H32" s="18">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="20"/>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="22" t="s">
@@ -2938,16 +2938,16 @@
         <v>45600.0</v>
       </c>
       <c r="F33" s="31">
-        <v>45601.0</v>
+        <v>45603.0</v>
       </c>
       <c r="G33" s="24">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H33" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -3040,7 +3040,7 @@
         <v>12.0</v>
       </c>
       <c r="H37" s="24">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>12</v>
@@ -3112,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E41" s="31">
         <v>45621.0</v>
@@ -3124,7 +3124,7 @@
         <v>10.0</v>
       </c>
       <c r="H41" s="24">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>12</v>
@@ -3136,7 +3136,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E42" s="32">
         <v>45621.0</v>
@@ -3148,7 +3148,7 @@
         <v>10.0</v>
       </c>
       <c r="H42" s="18">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>12</v>
@@ -3160,7 +3160,7 @@
         <v>53</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E43" s="31">
         <v>45621.0</v>
@@ -3172,7 +3172,7 @@
         <v>10.0</v>
       </c>
       <c r="H43" s="24">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>12</v>
@@ -3192,14 +3192,14 @@
       </c>
       <c r="H44" s="38">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="I44" s="39"/>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="D5:D44">
-      <formula1>"Terminado,Desarrollo,No empezado,Atrasado"</formula1>
+      <formula1>"Terminado,Desarrollo,No empezado,Atrasado,Cancelado"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I5:I44">
       <formula1>"Scrum master,Scrum team,Sebastian Gonzalez,Sebastian Pardo,Sin asignar"</formula1>
